--- a/Perk_data/data/classic/classic_utility_perks.xlsx
+++ b/Perk_data/data/classic/classic_utility_perks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre-Luc\Documents\GitHub\BattleBay_tool\Perk_data\data\classic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{184600E8-7D79-47CD-BB7B-7608BF38FA9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D028F7C-9EA0-4EFB-94CD-1A00740B4BD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9CDDEF43-CE84-4AD4-8214-7C6696156998}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="22">
   <si>
     <t>Item</t>
   </si>
@@ -75,9 +75,6 @@
     <t>6%-COOL_DOWN</t>
   </si>
   <si>
-    <t>5%-COOL_DOWN</t>
-  </si>
-  <si>
     <t>1-DURATION</t>
   </si>
   <si>
@@ -100,6 +97,12 @@
   </si>
   <si>
     <t>-BASE_STAT</t>
+  </si>
+  <si>
+    <t>25-BASE_STAT</t>
+  </si>
+  <si>
+    <t>4%-COOL_DOWN</t>
   </si>
 </sst>
 </file>
@@ -231,111 +234,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9966FF"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9966FF"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9966FF"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9966FF"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BC2E6"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BC2E6"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9966FF"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9966FF"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9966FF"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9966FF"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BC2E6"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BC2E6"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9966FF"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -853,7 +752,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -879,7 +778,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>5</v>
@@ -901,7 +800,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>5</v>
@@ -912,7 +811,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>5</v>
@@ -923,7 +822,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>5</v>
@@ -934,7 +833,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>5</v>
@@ -945,7 +844,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>8</v>
@@ -967,7 +866,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>8</v>
@@ -978,7 +877,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>8</v>
@@ -989,7 +888,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>8</v>
@@ -1000,29 +899,29 @@
         <v>2</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>16</v>
+      <c r="B14" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>9</v>
@@ -1033,7 +932,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>9</v>
@@ -1044,7 +943,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>9</v>
@@ -1055,18 +954,18 @@
         <v>2</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>20</v>
+      <c r="B19" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>9</v>
@@ -1075,7 +974,7 @@
   </sheetData>
   <autoFilter ref="A1:C11" xr:uid="{89470DC3-91A8-4599-AABB-A1933C2CE52D}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C19">
-      <sortCondition sortBy="cellColor" ref="C1:C11" dxfId="1"/>
+      <sortCondition sortBy="cellColor" ref="C1:C11" dxfId="0"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Perk_data/data/classic/classic_utility_perks.xlsx
+++ b/Perk_data/data/classic/classic_utility_perks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre-Luc\Documents\GitHub\BattleBay_tool\Perk_data\data\classic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D028F7C-9EA0-4EFB-94CD-1A00740B4BD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6693BAE9-D6C0-407D-86C0-E2C922C810C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9CDDEF43-CE84-4AD4-8214-7C6696156998}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="25">
   <si>
     <t>Item</t>
   </si>
@@ -54,21 +54,12 @@
     <t>1st-Bonus</t>
   </si>
   <si>
-    <t>Epic</t>
-  </si>
-  <si>
     <t>nitro</t>
   </si>
   <si>
     <t>overboost</t>
   </si>
   <si>
-    <t>Rare</t>
-  </si>
-  <si>
-    <t>Uncommon</t>
-  </si>
-  <si>
     <t>freeze_items</t>
   </si>
   <si>
@@ -103,6 +94,24 @@
   </si>
   <si>
     <t>4%-COOL_DOWN</t>
+  </si>
+  <si>
+    <t>epic</t>
+  </si>
+  <si>
+    <t>rare</t>
+  </si>
+  <si>
+    <t>uncommon</t>
+  </si>
+  <si>
+    <t>0.8-BASE_STAT</t>
+  </si>
+  <si>
+    <t>0.5-BASE_STAT</t>
+  </si>
+  <si>
+    <t>0.3-BASE_STAT</t>
   </si>
 </sst>
 </file>
@@ -259,197 +268,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>120016</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB6628B8-104D-469B-B083-89325A65F9A7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8667750" y="95250"/>
-          <a:ext cx="7248525" cy="4025266"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="2400" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>READ FIRST</a:t>
-          </a:r>
-          <a:endParaRPr lang="fr-FR" sz="2400">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="fr-FR" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100"/>
-            <a:t>The goal of this drive and excel is to have an up to date list of all the perks in all possible rarities. </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="fr-FR" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100"/>
-            <a:t>Here the legendaries have the right values and thus are colored in light green.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="fr-FR" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100"/>
-            <a:t>The goal is for you to go around your stuff and check if your perks are already updated. </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100"/>
-            <a:t>If they are not updated here, they will not be colored (in the excel) and then you have the oportunity to either dm me on discord with a screeshot of the perk's infos so I change it my self (@komiko44240 on the official battle bay discord sever), or change it yourself (if I can figure out a way to let google drive alow you to do that)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100"/>
-            <a:t>And please if you change any value that was not modified already, color it with the right (or as close as possible) color (R: 226 G:239 B:218 or hex</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>: #e2efda</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100"/>
-            <a:t>). </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="fr-FR" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100"/>
-            <a:t>If  the perk that you have is not part of this list, please dm me directly on discord (@komiko44240 on the official battle bay discord sever) without modifying</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
-            <a:t> any thing here.</a:t>
-          </a:r>
-          <a:endParaRPr lang="fr-FR" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="fr-FR" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="fr-FR" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100"/>
-            <a:t>Note : If</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
-            <a:t> any modification apported to this spread sheet is childish you will be banned from accesing this divre</a:t>
-          </a:r>
-          <a:endParaRPr lang="fr-FR" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -752,7 +570,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -775,35 +593,35 @@
     </row>
     <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -811,10 +629,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -822,10 +640,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -833,43 +651,43 @@
         <v>2</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="C8" s="5" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -877,10 +695,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -888,10 +706,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -899,43 +717,43 @@
         <v>2</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -943,10 +761,10 @@
         <v>3</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -954,10 +772,10 @@
         <v>2</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -965,10 +783,10 @@
         <v>2</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -978,6 +796,5 @@
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Perk_data/data/classic/classic_utility_perks.xlsx
+++ b/Perk_data/data/classic/classic_utility_perks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre-Luc\Documents\GitHub\BattleBay_tool\Perk_data\data\classic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6693BAE9-D6C0-407D-86C0-E2C922C810C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B60A9FAF-633A-4CA8-B08F-A458D22897FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9CDDEF43-CE84-4AD4-8214-7C6696156998}"/>
   </bookViews>
@@ -87,9 +87,6 @@
     <t>75-BASE_STAT</t>
   </si>
   <si>
-    <t>-BASE_STAT</t>
-  </si>
-  <si>
     <t>25-BASE_STAT</t>
   </si>
   <si>
@@ -112,6 +109,9 @@
   </si>
   <si>
     <t>0.3-BASE_STAT</t>
+  </si>
+  <si>
+    <t>50-BASE_STAT</t>
   </si>
 </sst>
 </file>
@@ -238,7 +238,7 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -570,7 +570,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -599,7 +599,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -610,7 +610,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -621,7 +621,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -629,10 +629,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -643,7 +643,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -654,7 +654,7 @@
         <v>15</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -665,7 +665,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -676,18 +676,18 @@
         <v>8</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -695,10 +695,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -709,18 +709,18 @@
         <v>11</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -731,7 +731,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -739,10 +739,10 @@
         <v>5</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -753,7 +753,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -761,10 +761,10 @@
         <v>3</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -772,10 +772,10 @@
         <v>2</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -786,7 +786,7 @@
         <v>14</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
